--- a/data/calibration_push.xlsx
+++ b/data/calibration_push.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6e372e5b8c96f59/stom/systems/vacuum_meter/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mh/OneDrive/stom/systems/vacuum_meter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{9F2896C5-DE1C-F546-8E46-F32FDED53593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:4000b_{9F2896C5-DE1C-F546-8E46-F32FDED53593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1723EA37-DCED-CA42-9896-B694E042D18D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20200218-125844-calibrating_wei" sheetId="1" r:id="rId1"/>
-    <sheet name="20200218-125844-calibrating (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="20200218-125844-calibrating (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>0g</t>
   </si>
@@ -60,13 +59,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000"/>
-    <numFmt numFmtId="183" formatCode="#\ ?????????/????????"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="#\ ?????????/????????"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -550,11 +549,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -600,7 +599,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -611,7 +613,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000000"/>
+      <numFmt numFmtId="166" formatCode="0.00000000000000000"/>
     </dxf>
     <dxf>
       <fill>
@@ -622,10 +624,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
+      <numFmt numFmtId="166" formatCode="0.00000000000000000"/>
     </dxf>
     <dxf>
       <fill>
@@ -791,196 +790,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -995,126 +804,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A504" totalsRowShown="0">
-  <autoFilter ref="A1:A504"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table17" displayName="Table17" ref="A1:A504" totalsRowShown="0">
+  <autoFilter ref="A1:A504" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A504">
     <sortCondition descending="1" ref="A1:A504"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="0g"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0g"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="J16:K20" totalsRowCount="1" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
-  <autoFilter ref="J16:K19"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="A" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
-      <calculatedColumnFormula>(J9-J8)/(K9-K8)</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Table511[A])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="2" name="B" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>-J17*K8+J8</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Table511[B])</totalsRowFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:C532" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="C1:C532"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table28" displayName="Table28" ref="B1:B532" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B1:B532" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="774g" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="774g" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E1:E575" totalsRowShown="0" dataDxfId="30" tableBorderDxfId="35">
-  <autoFilter ref="E1:E575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table39" displayName="Table39" ref="C1:C575" totalsRowShown="0" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="C1:C575" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="5268g" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="5268g" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="M7:O10" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="M7:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table410" displayName="Table410" ref="J7:L10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="J7:L10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Reference (g)" dataDxfId="27"/>
-    <tableColumn id="2" name="Average" dataDxfId="26"/>
-    <tableColumn id="3" name="Samples Tot." dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Reference (g)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Average" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Samples Tot." dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="M16:N20" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="19">
-  <autoFilter ref="M16:N19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table511" displayName="Table511" ref="J16:K20" totalsRowCount="1" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
+  <autoFilter ref="J16:K19" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="A" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
-      <calculatedColumnFormula>(M9-M8)/(N9-N8)</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Table5[A])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="A" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>(J9-J8)/(K9-K8)</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table511[A])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="B" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="18">
-      <calculatedColumnFormula>-M17*N8+M8</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Table5[B])</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="B" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>-J17*K8+J8</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table511[B])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:A504" totalsRowShown="0">
-  <autoFilter ref="A1:A504"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A504">
-    <sortCondition descending="1" ref="A1:A504"/>
-  </sortState>
-  <tableColumns count="1">
-    <tableColumn id="1" name="0g"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table28" displayName="Table28" ref="B1:B532" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B1:B532"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="774g" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table39" displayName="Table39" ref="C1:C575" totalsRowShown="0" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="C1:C575"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="5268g" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table410" displayName="Table410" ref="J7:L10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="J7:L10"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Reference (g)" dataDxfId="9"/>
-    <tableColumn id="2" name="Average" dataDxfId="8"/>
-    <tableColumn id="3" name="Samples Tot." dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1414,6120 +1161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O575"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="13" max="15" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-10793</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-179371</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-1099251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-11076</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-179526</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-1099429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-20189</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-179543</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-1099469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-20765</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-179566</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-1099513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-20949</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-179579</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-1099558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-20978</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-179591</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1099596</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-20991</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-179602</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-1099669</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>AVERAGE(A:A)</f>
-        <v>-21820.045725646123</v>
-      </c>
-      <c r="O8">
-        <f>COUNT(A:A)</f>
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>-21022</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-179605</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-1099676</v>
-      </c>
-      <c r="M9">
-        <v>774</v>
-      </c>
-      <c r="N9">
-        <f>AVERAGE(C:C)</f>
-        <v>-180171.42937853109</v>
-      </c>
-      <c r="O9">
-        <f>COUNT(C:C)</f>
-        <v>531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>-21107</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-179626</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-1099691</v>
-      </c>
-      <c r="M10">
-        <v>5268</v>
-      </c>
-      <c r="N10">
-        <f>AVERAGE(E:E)</f>
-        <v>-1100175.7038327525</v>
-      </c>
-      <c r="O10">
-        <f>COUNT(E:E)</f>
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-21126</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-179626</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-1099696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>-21187</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-179692</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-1099699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>-21203</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-179709</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-1099701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>-21207</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-179717</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-1099714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>-21224</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-179722</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-1099715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>-21238</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-179723</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-1099719</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>-21241</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-179740</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-1099723</v>
-      </c>
-      <c r="M17">
-        <f>(M9-M8)/(N9-N8)</f>
-        <v>-4.8878638262905925E-3</v>
-      </c>
-      <c r="N17">
-        <f>-M17*N8+M8</f>
-        <v>-106.65341219039234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>-21244</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-179740</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-1099742</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" ref="M18" si="0">(M10-M9)/(N10-N9)</f>
-        <v>-4.8847599133884428E-3</v>
-      </c>
-      <c r="N18">
-        <f>-M18*N9+M9</f>
-        <v>-106.09417576614544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>-21245</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-179745</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-1099745</v>
-      </c>
-      <c r="M19">
-        <f>(M10-M8)/(N10-N8)</f>
-        <v>-4.8852157081896285E-3</v>
-      </c>
-      <c r="N19" s="7">
-        <f>-M19*N10+M10</f>
-        <v>-106.5956301323431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>-21265</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-179771</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-1099748</v>
-      </c>
-      <c r="M20" s="6">
-        <f>AVERAGE(Table5[A])</f>
-        <v>-4.8859464826228874E-3</v>
-      </c>
-      <c r="N20" s="5">
-        <f>AVERAGE(Table5[B])</f>
-        <v>-106.44773936296031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>-21267</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-179776</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-1099756</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>-21273</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-179776</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-1099761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>-21277</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-179788</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-1099761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>-21288</v>
-      </c>
-      <c r="C24" s="2">
-        <v>-179790</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-1099763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>-21293</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-179792</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-1099764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>-21302</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-179793</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-1099771</v>
-      </c>
-      <c r="L26">
-        <f>A5</f>
-        <v>-20765</v>
-      </c>
-      <c r="M26">
-        <f>Table5[[#Totals],[A]]*L26+Table5[[#Totals],[B]]</f>
-        <v>-4.9910606512960527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>-21310</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-179794</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1099780</v>
-      </c>
-      <c r="M27">
-        <f>Table5[[#Totals],[A]]*N9+Table5[[#Totals],[B]]</f>
-        <v>773.86022227821161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>-21312</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-179799</v>
-      </c>
-      <c r="E28" s="2">
-        <v>-1099788</v>
-      </c>
-      <c r="M28">
-        <f>Table5[[#Totals],[A]]*N10+Table5[[#Totals],[B]]</f>
-        <v>5268.951871045836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>-21317</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-179799</v>
-      </c>
-      <c r="E29" s="2">
-        <v>-1099788</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>-21318</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-179801</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-1099790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>-21341</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-179802</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-1099797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>-21342</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-179804</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-1099801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>-21352</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-179807</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-1099804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>-21359</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-179812</v>
-      </c>
-      <c r="E34" s="2">
-        <v>-1099805</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-21373</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-179814</v>
-      </c>
-      <c r="E35" s="2">
-        <v>-1099806</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>-21374</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-179821</v>
-      </c>
-      <c r="E36" s="2">
-        <v>-1099807</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>-21374</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-179821</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-1099809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>-21395</v>
-      </c>
-      <c r="C38" s="2">
-        <v>-179822</v>
-      </c>
-      <c r="E38" s="2">
-        <v>-1099816</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>-21395</v>
-      </c>
-      <c r="C39" s="2">
-        <v>-179835</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-1099820</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>-21423</v>
-      </c>
-      <c r="C40" s="2">
-        <v>-179836</v>
-      </c>
-      <c r="E40" s="2">
-        <v>-1099833</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>-21425</v>
-      </c>
-      <c r="C41" s="2">
-        <v>-179837</v>
-      </c>
-      <c r="E41" s="2">
-        <v>-1099837</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>-21436</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-179847</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-1099838</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>-21438</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-179849</v>
-      </c>
-      <c r="E43" s="2">
-        <v>-1099840</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>-21442</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-179853</v>
-      </c>
-      <c r="E44" s="2">
-        <v>-1099840</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>-21450</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-179860</v>
-      </c>
-      <c r="E45" s="2">
-        <v>-1099840</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>-21451</v>
-      </c>
-      <c r="C46" s="2">
-        <v>-179861</v>
-      </c>
-      <c r="E46" s="2">
-        <v>-1099841</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>-21459</v>
-      </c>
-      <c r="C47" s="2">
-        <v>-179866</v>
-      </c>
-      <c r="E47" s="2">
-        <v>-1099842</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>-21465</v>
-      </c>
-      <c r="C48" s="2">
-        <v>-179866</v>
-      </c>
-      <c r="E48" s="2">
-        <v>-1099846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>-21471</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-179868</v>
-      </c>
-      <c r="E49" s="2">
-        <v>-1099846</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>-21474</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-179869</v>
-      </c>
-      <c r="E50" s="2">
-        <v>-1099853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>-21475</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-179877</v>
-      </c>
-      <c r="E51" s="2">
-        <v>-1099854</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>-21482</v>
-      </c>
-      <c r="C52" s="2">
-        <v>-179879</v>
-      </c>
-      <c r="E52" s="2">
-        <v>-1099857</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>-21490</v>
-      </c>
-      <c r="C53" s="2">
-        <v>-179880</v>
-      </c>
-      <c r="E53" s="2">
-        <v>-1099858</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>-21496</v>
-      </c>
-      <c r="C54" s="2">
-        <v>-179881</v>
-      </c>
-      <c r="E54" s="2">
-        <v>-1099859</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>-21497</v>
-      </c>
-      <c r="C55" s="2">
-        <v>-179882</v>
-      </c>
-      <c r="E55" s="2">
-        <v>-1099872</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>-21502</v>
-      </c>
-      <c r="C56" s="2">
-        <v>-179883</v>
-      </c>
-      <c r="E56" s="2">
-        <v>-1099874</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>-21503</v>
-      </c>
-      <c r="C57" s="2">
-        <v>-179884</v>
-      </c>
-      <c r="E57" s="2">
-        <v>-1099876</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>-21507</v>
-      </c>
-      <c r="C58" s="2">
-        <v>-179885</v>
-      </c>
-      <c r="E58" s="2">
-        <v>-1099877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>-21508</v>
-      </c>
-      <c r="C59" s="2">
-        <v>-179889</v>
-      </c>
-      <c r="E59" s="2">
-        <v>-1099882</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>-21516</v>
-      </c>
-      <c r="C60" s="2">
-        <v>-179889</v>
-      </c>
-      <c r="E60" s="2">
-        <v>-1099894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>-21519</v>
-      </c>
-      <c r="C61" s="2">
-        <v>-179895</v>
-      </c>
-      <c r="E61" s="2">
-        <v>-1099899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>-21532</v>
-      </c>
-      <c r="C62" s="2">
-        <v>-179896</v>
-      </c>
-      <c r="E62" s="2">
-        <v>-1099903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>-21538</v>
-      </c>
-      <c r="C63" s="2">
-        <v>-179896</v>
-      </c>
-      <c r="E63" s="2">
-        <v>-1099906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>-21539</v>
-      </c>
-      <c r="C64" s="2">
-        <v>-179901</v>
-      </c>
-      <c r="E64" s="2">
-        <v>-1099907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>-21540</v>
-      </c>
-      <c r="C65" s="2">
-        <v>-179901</v>
-      </c>
-      <c r="E65" s="2">
-        <v>-1099910</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>-21542</v>
-      </c>
-      <c r="C66" s="2">
-        <v>-179905</v>
-      </c>
-      <c r="E66" s="2">
-        <v>-1099910</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>-21544</v>
-      </c>
-      <c r="C67" s="2">
-        <v>-179909</v>
-      </c>
-      <c r="E67" s="2">
-        <v>-1099911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>-21545</v>
-      </c>
-      <c r="C68" s="2">
-        <v>-179912</v>
-      </c>
-      <c r="E68" s="2">
-        <v>-1099911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>-21547</v>
-      </c>
-      <c r="C69" s="2">
-        <v>-179914</v>
-      </c>
-      <c r="E69" s="2">
-        <v>-1099913</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>-21547</v>
-      </c>
-      <c r="C70" s="2">
-        <v>-179916</v>
-      </c>
-      <c r="E70" s="2">
-        <v>-1099913</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>-21550</v>
-      </c>
-      <c r="C71" s="2">
-        <v>-179916</v>
-      </c>
-      <c r="E71" s="2">
-        <v>-1099914</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>-21558</v>
-      </c>
-      <c r="C72" s="2">
-        <v>-179918</v>
-      </c>
-      <c r="E72" s="2">
-        <v>-1099914</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>-21565</v>
-      </c>
-      <c r="C73" s="2">
-        <v>-179919</v>
-      </c>
-      <c r="E73" s="2">
-        <v>-1099918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>-21565</v>
-      </c>
-      <c r="C74" s="2">
-        <v>-179920</v>
-      </c>
-      <c r="E74" s="2">
-        <v>-1099918</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>-21567</v>
-      </c>
-      <c r="C75" s="2">
-        <v>-179920</v>
-      </c>
-      <c r="E75" s="2">
-        <v>-1099920</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>-21567</v>
-      </c>
-      <c r="C76" s="2">
-        <v>-179921</v>
-      </c>
-      <c r="E76" s="2">
-        <v>-1099922</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>-21569</v>
-      </c>
-      <c r="C77" s="2">
-        <v>-179923</v>
-      </c>
-      <c r="E77" s="2">
-        <v>-1099928</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>-21575</v>
-      </c>
-      <c r="C78" s="2">
-        <v>-179925</v>
-      </c>
-      <c r="E78" s="2">
-        <v>-1099930</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>-21575</v>
-      </c>
-      <c r="C79" s="2">
-        <v>-179925</v>
-      </c>
-      <c r="E79" s="2">
-        <v>-1099932</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>-21577</v>
-      </c>
-      <c r="C80" s="2">
-        <v>-179925</v>
-      </c>
-      <c r="E80" s="2">
-        <v>-1099934</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>-21579</v>
-      </c>
-      <c r="C81" s="2">
-        <v>-179927</v>
-      </c>
-      <c r="E81" s="2">
-        <v>-1099935</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>-21582</v>
-      </c>
-      <c r="C82" s="2">
-        <v>-179929</v>
-      </c>
-      <c r="E82" s="2">
-        <v>-1099936</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>-21583</v>
-      </c>
-      <c r="C83" s="2">
-        <v>-179930</v>
-      </c>
-      <c r="E83" s="2">
-        <v>-1099937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>-21586</v>
-      </c>
-      <c r="C84" s="2">
-        <v>-179932</v>
-      </c>
-      <c r="E84" s="2">
-        <v>-1099937</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>-21587</v>
-      </c>
-      <c r="C85" s="2">
-        <v>-179933</v>
-      </c>
-      <c r="E85" s="2">
-        <v>-1099938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>-21587</v>
-      </c>
-      <c r="C86" s="2">
-        <v>-179937</v>
-      </c>
-      <c r="E86" s="2">
-        <v>-1099940</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>-21591</v>
-      </c>
-      <c r="C87" s="2">
-        <v>-179938</v>
-      </c>
-      <c r="E87" s="2">
-        <v>-1099940</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>-21592</v>
-      </c>
-      <c r="C88" s="2">
-        <v>-179939</v>
-      </c>
-      <c r="E88" s="2">
-        <v>-1099941</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>-21593</v>
-      </c>
-      <c r="C89" s="2">
-        <v>-179947</v>
-      </c>
-      <c r="E89" s="2">
-        <v>-1099943</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>-21600</v>
-      </c>
-      <c r="C90" s="2">
-        <v>-179948</v>
-      </c>
-      <c r="E90" s="2">
-        <v>-1099944</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>-21601</v>
-      </c>
-      <c r="C91" s="2">
-        <v>-179948</v>
-      </c>
-      <c r="E91" s="2">
-        <v>-1099947</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>-21602</v>
-      </c>
-      <c r="C92" s="2">
-        <v>-179950</v>
-      </c>
-      <c r="E92" s="2">
-        <v>-1099951</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>-21603</v>
-      </c>
-      <c r="C93" s="2">
-        <v>-179951</v>
-      </c>
-      <c r="E93" s="2">
-        <v>-1099951</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>-21603</v>
-      </c>
-      <c r="C94" s="2">
-        <v>-179956</v>
-      </c>
-      <c r="E94" s="2">
-        <v>-1099952</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>-21603</v>
-      </c>
-      <c r="C95" s="2">
-        <v>-179958</v>
-      </c>
-      <c r="E95" s="2">
-        <v>-1099953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>-21605</v>
-      </c>
-      <c r="C96" s="2">
-        <v>-179961</v>
-      </c>
-      <c r="E96" s="2">
-        <v>-1099953</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>-21607</v>
-      </c>
-      <c r="C97" s="2">
-        <v>-179965</v>
-      </c>
-      <c r="E97" s="2">
-        <v>-1099954</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>-21615</v>
-      </c>
-      <c r="C98" s="2">
-        <v>-179970</v>
-      </c>
-      <c r="E98" s="2">
-        <v>-1099958</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>-21615</v>
-      </c>
-      <c r="C99" s="2">
-        <v>-179971</v>
-      </c>
-      <c r="E99" s="2">
-        <v>-1099963</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>-21619</v>
-      </c>
-      <c r="C100" s="2">
-        <v>-179971</v>
-      </c>
-      <c r="E100" s="2">
-        <v>-1099969</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>-21619</v>
-      </c>
-      <c r="C101" s="2">
-        <v>-179978</v>
-      </c>
-      <c r="E101" s="2">
-        <v>-1099970</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>-21620</v>
-      </c>
-      <c r="C102" s="2">
-        <v>-179980</v>
-      </c>
-      <c r="E102" s="2">
-        <v>-1099971</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>-21620</v>
-      </c>
-      <c r="C103" s="2">
-        <v>-179986</v>
-      </c>
-      <c r="E103" s="2">
-        <v>-1099973</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>-21624</v>
-      </c>
-      <c r="C104" s="2">
-        <v>-179990</v>
-      </c>
-      <c r="E104" s="2">
-        <v>-1099973</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>-21624</v>
-      </c>
-      <c r="C105" s="2">
-        <v>-179994</v>
-      </c>
-      <c r="E105" s="2">
-        <v>-1099975</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>-21629</v>
-      </c>
-      <c r="C106" s="2">
-        <v>-179997</v>
-      </c>
-      <c r="E106" s="2">
-        <v>-1099985</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>-21636</v>
-      </c>
-      <c r="C107" s="2">
-        <v>-179997</v>
-      </c>
-      <c r="E107" s="2">
-        <v>-1099985</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>-21636</v>
-      </c>
-      <c r="C108" s="2">
-        <v>-180000</v>
-      </c>
-      <c r="E108" s="2">
-        <v>-1099986</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>-21639</v>
-      </c>
-      <c r="C109" s="2">
-        <v>-180003</v>
-      </c>
-      <c r="E109" s="2">
-        <v>-1099986</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>-21640</v>
-      </c>
-      <c r="C110" s="2">
-        <v>-180004</v>
-      </c>
-      <c r="E110" s="2">
-        <v>-1099987</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>-21641</v>
-      </c>
-      <c r="C111" s="2">
-        <v>-180004</v>
-      </c>
-      <c r="E111" s="2">
-        <v>-1099989</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>-21641</v>
-      </c>
-      <c r="C112" s="2">
-        <v>-180005</v>
-      </c>
-      <c r="E112" s="2">
-        <v>-1099989</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>-21643</v>
-      </c>
-      <c r="C113" s="2">
-        <v>-180006</v>
-      </c>
-      <c r="E113" s="2">
-        <v>-1099993</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>-21647</v>
-      </c>
-      <c r="C114" s="2">
-        <v>-180007</v>
-      </c>
-      <c r="E114" s="2">
-        <v>-1099993</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>-21647</v>
-      </c>
-      <c r="C115" s="2">
-        <v>-180008</v>
-      </c>
-      <c r="E115" s="2">
-        <v>-1099993</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>-21649</v>
-      </c>
-      <c r="C116" s="2">
-        <v>-180008</v>
-      </c>
-      <c r="E116" s="2">
-        <v>-1099994</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>-21651</v>
-      </c>
-      <c r="C117" s="2">
-        <v>-180008</v>
-      </c>
-      <c r="E117" s="2">
-        <v>-1099995</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>-21652</v>
-      </c>
-      <c r="C118" s="2">
-        <v>-180011</v>
-      </c>
-      <c r="E118" s="2">
-        <v>-1099997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>-21656</v>
-      </c>
-      <c r="C119" s="2">
-        <v>-180012</v>
-      </c>
-      <c r="E119" s="2">
-        <v>-1099998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>-21659</v>
-      </c>
-      <c r="C120" s="2">
-        <v>-180012</v>
-      </c>
-      <c r="E120" s="2">
-        <v>-1099998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>-21659</v>
-      </c>
-      <c r="C121" s="2">
-        <v>-180013</v>
-      </c>
-      <c r="E121" s="2">
-        <v>-1099998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>-21661</v>
-      </c>
-      <c r="C122" s="2">
-        <v>-180013</v>
-      </c>
-      <c r="E122" s="2">
-        <v>-1100000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>-21662</v>
-      </c>
-      <c r="C123" s="2">
-        <v>-180014</v>
-      </c>
-      <c r="E123" s="2">
-        <v>-1100001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>-21662</v>
-      </c>
-      <c r="C124" s="2">
-        <v>-180016</v>
-      </c>
-      <c r="E124" s="2">
-        <v>-1100002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>-21663</v>
-      </c>
-      <c r="C125" s="2">
-        <v>-180018</v>
-      </c>
-      <c r="E125" s="2">
-        <v>-1100003</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>-21664</v>
-      </c>
-      <c r="C126" s="2">
-        <v>-180018</v>
-      </c>
-      <c r="E126" s="2">
-        <v>-1100003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>-21666</v>
-      </c>
-      <c r="C127" s="2">
-        <v>-180020</v>
-      </c>
-      <c r="E127" s="2">
-        <v>-1100006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>-21667</v>
-      </c>
-      <c r="C128" s="2">
-        <v>-180021</v>
-      </c>
-      <c r="E128" s="2">
-        <v>-1100006</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>-21669</v>
-      </c>
-      <c r="C129" s="2">
-        <v>-180023</v>
-      </c>
-      <c r="E129" s="2">
-        <v>-1100006</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>-21670</v>
-      </c>
-      <c r="C130" s="2">
-        <v>-180024</v>
-      </c>
-      <c r="E130" s="2">
-        <v>-1100007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>-21672</v>
-      </c>
-      <c r="C131" s="2">
-        <v>-180025</v>
-      </c>
-      <c r="E131" s="2">
-        <v>-1100008</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>-21672</v>
-      </c>
-      <c r="C132" s="2">
-        <v>-180026</v>
-      </c>
-      <c r="E132" s="2">
-        <v>-1100011</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>-21675</v>
-      </c>
-      <c r="C133" s="2">
-        <v>-180028</v>
-      </c>
-      <c r="E133" s="2">
-        <v>-1100011</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>-21676</v>
-      </c>
-      <c r="C134" s="2">
-        <v>-180029</v>
-      </c>
-      <c r="E134" s="2">
-        <v>-1100013</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>-21680</v>
-      </c>
-      <c r="C135" s="2">
-        <v>-180030</v>
-      </c>
-      <c r="E135" s="2">
-        <v>-1100014</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>-21681</v>
-      </c>
-      <c r="C136" s="2">
-        <v>-180030</v>
-      </c>
-      <c r="E136" s="2">
-        <v>-1100015</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>-21685</v>
-      </c>
-      <c r="C137" s="2">
-        <v>-180030</v>
-      </c>
-      <c r="E137" s="2">
-        <v>-1100015</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>-21685</v>
-      </c>
-      <c r="C138" s="2">
-        <v>-180030</v>
-      </c>
-      <c r="E138" s="2">
-        <v>-1100016</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>-21689</v>
-      </c>
-      <c r="C139" s="2">
-        <v>-180030</v>
-      </c>
-      <c r="E139" s="2">
-        <v>-1100018</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>-21691</v>
-      </c>
-      <c r="C140" s="2">
-        <v>-180030</v>
-      </c>
-      <c r="E140" s="2">
-        <v>-1100020</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>-21691</v>
-      </c>
-      <c r="C141" s="2">
-        <v>-180035</v>
-      </c>
-      <c r="E141" s="2">
-        <v>-1100022</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>-21692</v>
-      </c>
-      <c r="C142" s="2">
-        <v>-180040</v>
-      </c>
-      <c r="E142" s="2">
-        <v>-1100023</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>-21694</v>
-      </c>
-      <c r="C143" s="2">
-        <v>-180040</v>
-      </c>
-      <c r="E143" s="2">
-        <v>-1100024</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>-21694</v>
-      </c>
-      <c r="C144" s="2">
-        <v>-180043</v>
-      </c>
-      <c r="E144" s="2">
-        <v>-1100025</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>-21695</v>
-      </c>
-      <c r="C145" s="2">
-        <v>-180044</v>
-      </c>
-      <c r="E145" s="2">
-        <v>-1100027</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>-21696</v>
-      </c>
-      <c r="C146" s="2">
-        <v>-180044</v>
-      </c>
-      <c r="E146" s="2">
-        <v>-1100027</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>-21699</v>
-      </c>
-      <c r="C147" s="2">
-        <v>-180045</v>
-      </c>
-      <c r="E147" s="2">
-        <v>-1100029</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>-21701</v>
-      </c>
-      <c r="C148" s="2">
-        <v>-180045</v>
-      </c>
-      <c r="E148" s="2">
-        <v>-1100030</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>-21708</v>
-      </c>
-      <c r="C149" s="2">
-        <v>-180051</v>
-      </c>
-      <c r="E149" s="2">
-        <v>-1100031</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>-21709</v>
-      </c>
-      <c r="C150" s="2">
-        <v>-180051</v>
-      </c>
-      <c r="E150" s="2">
-        <v>-1100032</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>-21715</v>
-      </c>
-      <c r="C151" s="2">
-        <v>-180051</v>
-      </c>
-      <c r="E151" s="2">
-        <v>-1100035</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>-21716</v>
-      </c>
-      <c r="C152" s="2">
-        <v>-180052</v>
-      </c>
-      <c r="E152" s="2">
-        <v>-1100040</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>-21717</v>
-      </c>
-      <c r="C153" s="2">
-        <v>-180058</v>
-      </c>
-      <c r="E153" s="2">
-        <v>-1100040</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>-21717</v>
-      </c>
-      <c r="C154" s="2">
-        <v>-180059</v>
-      </c>
-      <c r="E154" s="2">
-        <v>-1100041</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>-21721</v>
-      </c>
-      <c r="C155" s="2">
-        <v>-180060</v>
-      </c>
-      <c r="E155" s="2">
-        <v>-1100043</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>-21721</v>
-      </c>
-      <c r="C156" s="2">
-        <v>-180061</v>
-      </c>
-      <c r="E156" s="2">
-        <v>-1100044</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>-21721</v>
-      </c>
-      <c r="C157" s="2">
-        <v>-180061</v>
-      </c>
-      <c r="E157" s="2">
-        <v>-1100046</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>-21722</v>
-      </c>
-      <c r="C158" s="2">
-        <v>-180062</v>
-      </c>
-      <c r="E158" s="2">
-        <v>-1100046</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>-21723</v>
-      </c>
-      <c r="C159" s="2">
-        <v>-180062</v>
-      </c>
-      <c r="E159" s="2">
-        <v>-1100047</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>-21723</v>
-      </c>
-      <c r="C160" s="2">
-        <v>-180063</v>
-      </c>
-      <c r="E160" s="2">
-        <v>-1100047</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>-21725</v>
-      </c>
-      <c r="C161" s="2">
-        <v>-180063</v>
-      </c>
-      <c r="E161" s="2">
-        <v>-1100048</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>-21726</v>
-      </c>
-      <c r="C162" s="2">
-        <v>-180064</v>
-      </c>
-      <c r="E162" s="2">
-        <v>-1100050</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>-21726</v>
-      </c>
-      <c r="C163" s="2">
-        <v>-180064</v>
-      </c>
-      <c r="E163" s="2">
-        <v>-1100051</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>-21726</v>
-      </c>
-      <c r="C164" s="2">
-        <v>-180066</v>
-      </c>
-      <c r="E164" s="2">
-        <v>-1100052</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>-21729</v>
-      </c>
-      <c r="C165" s="2">
-        <v>-180066</v>
-      </c>
-      <c r="E165" s="2">
-        <v>-1100054</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>-21729</v>
-      </c>
-      <c r="C166" s="2">
-        <v>-180069</v>
-      </c>
-      <c r="E166" s="2">
-        <v>-1100057</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>-21730</v>
-      </c>
-      <c r="C167" s="2">
-        <v>-180069</v>
-      </c>
-      <c r="E167" s="2">
-        <v>-1100058</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>-21732</v>
-      </c>
-      <c r="C168" s="2">
-        <v>-180069</v>
-      </c>
-      <c r="E168" s="2">
-        <v>-1100058</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>-21733</v>
-      </c>
-      <c r="C169" s="2">
-        <v>-180069</v>
-      </c>
-      <c r="E169" s="2">
-        <v>-1100058</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>-21734</v>
-      </c>
-      <c r="C170" s="2">
-        <v>-180073</v>
-      </c>
-      <c r="E170" s="2">
-        <v>-1100059</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>-21740</v>
-      </c>
-      <c r="C171" s="2">
-        <v>-180073</v>
-      </c>
-      <c r="E171" s="2">
-        <v>-1100060</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>-21740</v>
-      </c>
-      <c r="C172" s="2">
-        <v>-180073</v>
-      </c>
-      <c r="E172" s="2">
-        <v>-1100061</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>-21743</v>
-      </c>
-      <c r="C173" s="2">
-        <v>-180074</v>
-      </c>
-      <c r="E173" s="2">
-        <v>-1100061</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>-21744</v>
-      </c>
-      <c r="C174" s="2">
-        <v>-180077</v>
-      </c>
-      <c r="E174" s="2">
-        <v>-1100063</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>-21744</v>
-      </c>
-      <c r="C175" s="2">
-        <v>-180078</v>
-      </c>
-      <c r="E175" s="2">
-        <v>-1100065</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>-21751</v>
-      </c>
-      <c r="C176" s="2">
-        <v>-180078</v>
-      </c>
-      <c r="E176" s="2">
-        <v>-1100070</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>-21752</v>
-      </c>
-      <c r="C177" s="2">
-        <v>-180078</v>
-      </c>
-      <c r="E177" s="2">
-        <v>-1100070</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>-21755</v>
-      </c>
-      <c r="C178" s="2">
-        <v>-180079</v>
-      </c>
-      <c r="E178" s="2">
-        <v>-1100071</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>-21756</v>
-      </c>
-      <c r="C179" s="2">
-        <v>-180080</v>
-      </c>
-      <c r="E179" s="2">
-        <v>-1100072</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>-21757</v>
-      </c>
-      <c r="C180" s="2">
-        <v>-180084</v>
-      </c>
-      <c r="E180" s="2">
-        <v>-1100073</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>-21758</v>
-      </c>
-      <c r="C181" s="2">
-        <v>-180085</v>
-      </c>
-      <c r="E181" s="2">
-        <v>-1100074</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>-21760</v>
-      </c>
-      <c r="C182" s="2">
-        <v>-180088</v>
-      </c>
-      <c r="E182" s="2">
-        <v>-1100074</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>-21763</v>
-      </c>
-      <c r="C183" s="2">
-        <v>-180089</v>
-      </c>
-      <c r="E183" s="2">
-        <v>-1100074</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>-21763</v>
-      </c>
-      <c r="C184" s="2">
-        <v>-180090</v>
-      </c>
-      <c r="E184" s="2">
-        <v>-1100075</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>-21764</v>
-      </c>
-      <c r="C185" s="2">
-        <v>-180092</v>
-      </c>
-      <c r="E185" s="2">
-        <v>-1100077</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>-21765</v>
-      </c>
-      <c r="C186" s="2">
-        <v>-180093</v>
-      </c>
-      <c r="E186" s="2">
-        <v>-1100077</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>-21767</v>
-      </c>
-      <c r="C187" s="2">
-        <v>-180093</v>
-      </c>
-      <c r="E187" s="2">
-        <v>-1100077</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>-21768</v>
-      </c>
-      <c r="C188" s="2">
-        <v>-180094</v>
-      </c>
-      <c r="E188" s="2">
-        <v>-1100078</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>-21768</v>
-      </c>
-      <c r="C189" s="2">
-        <v>-180094</v>
-      </c>
-      <c r="E189" s="2">
-        <v>-1100079</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>-21770</v>
-      </c>
-      <c r="C190" s="2">
-        <v>-180096</v>
-      </c>
-      <c r="E190" s="2">
-        <v>-1100079</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>-21775</v>
-      </c>
-      <c r="C191" s="2">
-        <v>-180097</v>
-      </c>
-      <c r="E191" s="2">
-        <v>-1100082</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>-21775</v>
-      </c>
-      <c r="C192" s="2">
-        <v>-180097</v>
-      </c>
-      <c r="E192" s="2">
-        <v>-1100082</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>-21775</v>
-      </c>
-      <c r="C193" s="2">
-        <v>-180100</v>
-      </c>
-      <c r="E193" s="2">
-        <v>-1100083</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>-21778</v>
-      </c>
-      <c r="C194" s="2">
-        <v>-180101</v>
-      </c>
-      <c r="E194" s="2">
-        <v>-1100084</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>-21780</v>
-      </c>
-      <c r="C195" s="2">
-        <v>-180102</v>
-      </c>
-      <c r="E195" s="2">
-        <v>-1100084</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>-21781</v>
-      </c>
-      <c r="C196" s="2">
-        <v>-180102</v>
-      </c>
-      <c r="E196" s="2">
-        <v>-1100085</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>-21785</v>
-      </c>
-      <c r="C197" s="2">
-        <v>-180103</v>
-      </c>
-      <c r="E197" s="2">
-        <v>-1100086</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>-21786</v>
-      </c>
-      <c r="C198" s="2">
-        <v>-180104</v>
-      </c>
-      <c r="E198" s="2">
-        <v>-1100088</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>-21786</v>
-      </c>
-      <c r="C199" s="2">
-        <v>-180104</v>
-      </c>
-      <c r="E199" s="2">
-        <v>-1100088</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>-21790</v>
-      </c>
-      <c r="C200" s="2">
-        <v>-180105</v>
-      </c>
-      <c r="E200" s="2">
-        <v>-1100090</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>-21791</v>
-      </c>
-      <c r="C201" s="2">
-        <v>-180106</v>
-      </c>
-      <c r="E201" s="2">
-        <v>-1100091</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>-21793</v>
-      </c>
-      <c r="C202" s="2">
-        <v>-180106</v>
-      </c>
-      <c r="E202" s="2">
-        <v>-1100093</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>-21793</v>
-      </c>
-      <c r="C203" s="2">
-        <v>-180114</v>
-      </c>
-      <c r="E203" s="2">
-        <v>-1100094</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>-21794</v>
-      </c>
-      <c r="C204" s="2">
-        <v>-180115</v>
-      </c>
-      <c r="E204" s="2">
-        <v>-1100095</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>-21805</v>
-      </c>
-      <c r="C205" s="2">
-        <v>-180115</v>
-      </c>
-      <c r="E205" s="2">
-        <v>-1100095</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>-21805</v>
-      </c>
-      <c r="C206" s="2">
-        <v>-180117</v>
-      </c>
-      <c r="E206" s="2">
-        <v>-1100095</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>-21806</v>
-      </c>
-      <c r="C207" s="2">
-        <v>-180117</v>
-      </c>
-      <c r="E207" s="2">
-        <v>-1100095</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>-21807</v>
-      </c>
-      <c r="C208" s="2">
-        <v>-180118</v>
-      </c>
-      <c r="E208" s="2">
-        <v>-1100096</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>-21809</v>
-      </c>
-      <c r="C209" s="2">
-        <v>-180123</v>
-      </c>
-      <c r="E209" s="2">
-        <v>-1100096</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>-21810</v>
-      </c>
-      <c r="C210" s="2">
-        <v>-180124</v>
-      </c>
-      <c r="E210" s="2">
-        <v>-1100097</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>-21815</v>
-      </c>
-      <c r="C211" s="2">
-        <v>-180124</v>
-      </c>
-      <c r="E211" s="2">
-        <v>-1100097</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>-21816</v>
-      </c>
-      <c r="C212" s="2">
-        <v>-180127</v>
-      </c>
-      <c r="E212" s="2">
-        <v>-1100098</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>-21816</v>
-      </c>
-      <c r="C213" s="2">
-        <v>-180128</v>
-      </c>
-      <c r="E213" s="2">
-        <v>-1100098</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>-21816</v>
-      </c>
-      <c r="C214" s="2">
-        <v>-180129</v>
-      </c>
-      <c r="E214" s="2">
-        <v>-1100100</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>-21820</v>
-      </c>
-      <c r="C215" s="2">
-        <v>-180131</v>
-      </c>
-      <c r="E215" s="2">
-        <v>-1100100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>-21822</v>
-      </c>
-      <c r="C216" s="2">
-        <v>-180133</v>
-      </c>
-      <c r="E216" s="2">
-        <v>-1100103</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>-21823</v>
-      </c>
-      <c r="C217" s="2">
-        <v>-180133</v>
-      </c>
-      <c r="E217" s="2">
-        <v>-1100105</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>-21823</v>
-      </c>
-      <c r="C218" s="2">
-        <v>-180135</v>
-      </c>
-      <c r="E218" s="2">
-        <v>-1100105</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>-21827</v>
-      </c>
-      <c r="C219" s="2">
-        <v>-180135</v>
-      </c>
-      <c r="E219" s="2">
-        <v>-1100106</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>-21829</v>
-      </c>
-      <c r="C220" s="2">
-        <v>-180135</v>
-      </c>
-      <c r="E220" s="2">
-        <v>-1100106</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>-21829</v>
-      </c>
-      <c r="C221" s="2">
-        <v>-180136</v>
-      </c>
-      <c r="E221" s="2">
-        <v>-1100108</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>-21830</v>
-      </c>
-      <c r="C222" s="2">
-        <v>-180136</v>
-      </c>
-      <c r="E222" s="2">
-        <v>-1100108</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>-21831</v>
-      </c>
-      <c r="C223" s="2">
-        <v>-180137</v>
-      </c>
-      <c r="E223" s="2">
-        <v>-1100110</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>-21832</v>
-      </c>
-      <c r="C224" s="2">
-        <v>-180138</v>
-      </c>
-      <c r="E224" s="2">
-        <v>-1100112</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>-21832</v>
-      </c>
-      <c r="C225" s="2">
-        <v>-180138</v>
-      </c>
-      <c r="E225" s="2">
-        <v>-1100113</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>-21839</v>
-      </c>
-      <c r="C226" s="2">
-        <v>-180140</v>
-      </c>
-      <c r="E226" s="2">
-        <v>-1100114</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>-21841</v>
-      </c>
-      <c r="C227" s="2">
-        <v>-180142</v>
-      </c>
-      <c r="E227" s="2">
-        <v>-1100114</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>-21843</v>
-      </c>
-      <c r="C228" s="2">
-        <v>-180143</v>
-      </c>
-      <c r="E228" s="2">
-        <v>-1100114</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>-21847</v>
-      </c>
-      <c r="C229" s="2">
-        <v>-180145</v>
-      </c>
-      <c r="E229" s="2">
-        <v>-1100115</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>-21848</v>
-      </c>
-      <c r="C230" s="2">
-        <v>-180146</v>
-      </c>
-      <c r="E230" s="2">
-        <v>-1100117</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>-21849</v>
-      </c>
-      <c r="C231" s="2">
-        <v>-180147</v>
-      </c>
-      <c r="E231" s="2">
-        <v>-1100118</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>-21850</v>
-      </c>
-      <c r="C232" s="2">
-        <v>-180147</v>
-      </c>
-      <c r="E232" s="2">
-        <v>-1100118</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>-21852</v>
-      </c>
-      <c r="C233" s="2">
-        <v>-180148</v>
-      </c>
-      <c r="E233" s="2">
-        <v>-1100119</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>-21854</v>
-      </c>
-      <c r="C234" s="2">
-        <v>-180148</v>
-      </c>
-      <c r="E234" s="2">
-        <v>-1100119</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>-21855</v>
-      </c>
-      <c r="C235" s="2">
-        <v>-180149</v>
-      </c>
-      <c r="E235" s="2">
-        <v>-1100120</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>-21856</v>
-      </c>
-      <c r="C236" s="2">
-        <v>-180150</v>
-      </c>
-      <c r="E236" s="2">
-        <v>-1100120</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>-21859</v>
-      </c>
-      <c r="C237" s="2">
-        <v>-180150</v>
-      </c>
-      <c r="E237" s="2">
-        <v>-1100121</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>-21860</v>
-      </c>
-      <c r="C238" s="2">
-        <v>-180152</v>
-      </c>
-      <c r="E238" s="2">
-        <v>-1100121</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>-21860</v>
-      </c>
-      <c r="C239" s="2">
-        <v>-180152</v>
-      </c>
-      <c r="E239" s="2">
-        <v>-1100122</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>-21861</v>
-      </c>
-      <c r="C240" s="2">
-        <v>-180152</v>
-      </c>
-      <c r="E240" s="2">
-        <v>-1100124</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>-21864</v>
-      </c>
-      <c r="C241" s="2">
-        <v>-180154</v>
-      </c>
-      <c r="E241" s="2">
-        <v>-1100124</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>-21864</v>
-      </c>
-      <c r="C242" s="2">
-        <v>-180154</v>
-      </c>
-      <c r="E242" s="2">
-        <v>-1100125</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>-21865</v>
-      </c>
-      <c r="C243" s="2">
-        <v>-180154</v>
-      </c>
-      <c r="E243" s="2">
-        <v>-1100126</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>-21870</v>
-      </c>
-      <c r="C244" s="2">
-        <v>-180155</v>
-      </c>
-      <c r="E244" s="2">
-        <v>-1100127</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>-21870</v>
-      </c>
-      <c r="C245" s="2">
-        <v>-180156</v>
-      </c>
-      <c r="E245" s="2">
-        <v>-1100128</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <v>-21871</v>
-      </c>
-      <c r="C246" s="2">
-        <v>-180157</v>
-      </c>
-      <c r="E246" s="2">
-        <v>-1100128</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>-21871</v>
-      </c>
-      <c r="C247" s="2">
-        <v>-180157</v>
-      </c>
-      <c r="E247" s="2">
-        <v>-1100130</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>-21872</v>
-      </c>
-      <c r="C248" s="2">
-        <v>-180161</v>
-      </c>
-      <c r="E248" s="2">
-        <v>-1100132</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>-21875</v>
-      </c>
-      <c r="C249" s="2">
-        <v>-180161</v>
-      </c>
-      <c r="E249" s="2">
-        <v>-1100132</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <v>-21876</v>
-      </c>
-      <c r="C250" s="2">
-        <v>-180161</v>
-      </c>
-      <c r="E250" s="2">
-        <v>-1100132</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <v>-21876</v>
-      </c>
-      <c r="C251" s="2">
-        <v>-180162</v>
-      </c>
-      <c r="E251" s="2">
-        <v>-1100133</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>-21877</v>
-      </c>
-      <c r="C252" s="2">
-        <v>-180164</v>
-      </c>
-      <c r="E252" s="2">
-        <v>-1100135</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>-21879</v>
-      </c>
-      <c r="C253" s="2">
-        <v>-180167</v>
-      </c>
-      <c r="E253" s="2">
-        <v>-1100137</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <v>-21889</v>
-      </c>
-      <c r="C254" s="2">
-        <v>-180168</v>
-      </c>
-      <c r="E254" s="2">
-        <v>-1100139</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <v>-21892</v>
-      </c>
-      <c r="C255" s="2">
-        <v>-180168</v>
-      </c>
-      <c r="E255" s="2">
-        <v>-1100140</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <v>-21893</v>
-      </c>
-      <c r="C256" s="2">
-        <v>-180168</v>
-      </c>
-      <c r="E256" s="2">
-        <v>-1100141</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>-21893</v>
-      </c>
-      <c r="C257" s="2">
-        <v>-180168</v>
-      </c>
-      <c r="E257" s="2">
-        <v>-1100144</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258">
-        <v>-21894</v>
-      </c>
-      <c r="C258" s="2">
-        <v>-180169</v>
-      </c>
-      <c r="E258" s="2">
-        <v>-1100146</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259">
-        <v>-21897</v>
-      </c>
-      <c r="C259" s="2">
-        <v>-180169</v>
-      </c>
-      <c r="E259" s="2">
-        <v>-1100148</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260">
-        <v>-21897</v>
-      </c>
-      <c r="C260" s="2">
-        <v>-180172</v>
-      </c>
-      <c r="E260" s="2">
-        <v>-1100148</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>-21897</v>
-      </c>
-      <c r="C261" s="2">
-        <v>-180173</v>
-      </c>
-      <c r="E261" s="2">
-        <v>-1100149</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>-21902</v>
-      </c>
-      <c r="C262" s="2">
-        <v>-180173</v>
-      </c>
-      <c r="E262" s="2">
-        <v>-1100150</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>-21903</v>
-      </c>
-      <c r="C263" s="2">
-        <v>-180174</v>
-      </c>
-      <c r="E263" s="2">
-        <v>-1100150</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <v>-21903</v>
-      </c>
-      <c r="C264" s="2">
-        <v>-180175</v>
-      </c>
-      <c r="E264" s="2">
-        <v>-1100151</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265">
-        <v>-21908</v>
-      </c>
-      <c r="C265" s="2">
-        <v>-180177</v>
-      </c>
-      <c r="E265" s="2">
-        <v>-1100151</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266">
-        <v>-21910</v>
-      </c>
-      <c r="C266" s="2">
-        <v>-180177</v>
-      </c>
-      <c r="E266" s="2">
-        <v>-1100151</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <v>-21911</v>
-      </c>
-      <c r="C267" s="2">
-        <v>-180177</v>
-      </c>
-      <c r="E267" s="2">
-        <v>-1100152</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>-21914</v>
-      </c>
-      <c r="C268" s="2">
-        <v>-180177</v>
-      </c>
-      <c r="E268" s="2">
-        <v>-1100153</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>-21915</v>
-      </c>
-      <c r="C269" s="2">
-        <v>-180178</v>
-      </c>
-      <c r="E269" s="2">
-        <v>-1100153</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>-21921</v>
-      </c>
-      <c r="C270" s="2">
-        <v>-180179</v>
-      </c>
-      <c r="E270" s="2">
-        <v>-1100154</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>-21921</v>
-      </c>
-      <c r="C271" s="2">
-        <v>-180181</v>
-      </c>
-      <c r="E271" s="2">
-        <v>-1100155</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>-21921</v>
-      </c>
-      <c r="C272" s="2">
-        <v>-180182</v>
-      </c>
-      <c r="E272" s="2">
-        <v>-1100158</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>-21923</v>
-      </c>
-      <c r="C273" s="2">
-        <v>-180182</v>
-      </c>
-      <c r="E273" s="2">
-        <v>-1100159</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>-21924</v>
-      </c>
-      <c r="C274" s="2">
-        <v>-180183</v>
-      </c>
-      <c r="E274" s="2">
-        <v>-1100160</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>-21926</v>
-      </c>
-      <c r="C275" s="2">
-        <v>-180183</v>
-      </c>
-      <c r="E275" s="2">
-        <v>-1100161</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>-21926</v>
-      </c>
-      <c r="C276" s="2">
-        <v>-180184</v>
-      </c>
-      <c r="E276" s="2">
-        <v>-1100162</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>-21928</v>
-      </c>
-      <c r="C277" s="2">
-        <v>-180185</v>
-      </c>
-      <c r="E277" s="2">
-        <v>-1100163</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>-21928</v>
-      </c>
-      <c r="C278" s="2">
-        <v>-180186</v>
-      </c>
-      <c r="E278" s="2">
-        <v>-1100163</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>-21929</v>
-      </c>
-      <c r="C279" s="2">
-        <v>-180187</v>
-      </c>
-      <c r="E279" s="2">
-        <v>-1100164</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>-21930</v>
-      </c>
-      <c r="C280" s="2">
-        <v>-180187</v>
-      </c>
-      <c r="E280" s="2">
-        <v>-1100164</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>-21930</v>
-      </c>
-      <c r="C281" s="2">
-        <v>-180189</v>
-      </c>
-      <c r="E281" s="2">
-        <v>-1100167</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>-21932</v>
-      </c>
-      <c r="C282" s="2">
-        <v>-180190</v>
-      </c>
-      <c r="E282" s="2">
-        <v>-1100167</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <v>-21936</v>
-      </c>
-      <c r="C283" s="2">
-        <v>-180192</v>
-      </c>
-      <c r="E283" s="2">
-        <v>-1100174</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284">
-        <v>-21939</v>
-      </c>
-      <c r="C284" s="2">
-        <v>-180192</v>
-      </c>
-      <c r="E284" s="2">
-        <v>-1100175</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285">
-        <v>-21939</v>
-      </c>
-      <c r="C285" s="2">
-        <v>-180192</v>
-      </c>
-      <c r="E285" s="2">
-        <v>-1100176</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286">
-        <v>-21940</v>
-      </c>
-      <c r="C286" s="2">
-        <v>-180193</v>
-      </c>
-      <c r="E286" s="2">
-        <v>-1100176</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287">
-        <v>-21940</v>
-      </c>
-      <c r="C287" s="2">
-        <v>-180193</v>
-      </c>
-      <c r="E287" s="2">
-        <v>-1100176</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288">
-        <v>-21940</v>
-      </c>
-      <c r="C288" s="2">
-        <v>-180194</v>
-      </c>
-      <c r="E288" s="2">
-        <v>-1100179</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289">
-        <v>-21943</v>
-      </c>
-      <c r="C289" s="2">
-        <v>-180196</v>
-      </c>
-      <c r="E289" s="2">
-        <v>-1100180</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <v>-21946</v>
-      </c>
-      <c r="C290" s="2">
-        <v>-180196</v>
-      </c>
-      <c r="E290" s="2">
-        <v>-1100180</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291">
-        <v>-21946</v>
-      </c>
-      <c r="C291" s="2">
-        <v>-180196</v>
-      </c>
-      <c r="E291" s="2">
-        <v>-1100185</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292">
-        <v>-21948</v>
-      </c>
-      <c r="C292" s="2">
-        <v>-180198</v>
-      </c>
-      <c r="E292" s="2">
-        <v>-1100185</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <v>-21952</v>
-      </c>
-      <c r="C293" s="2">
-        <v>-180198</v>
-      </c>
-      <c r="E293" s="2">
-        <v>-1100187</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <v>-21953</v>
-      </c>
-      <c r="C294" s="2">
-        <v>-180199</v>
-      </c>
-      <c r="E294" s="2">
-        <v>-1100187</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295">
-        <v>-21953</v>
-      </c>
-      <c r="C295" s="2">
-        <v>-180200</v>
-      </c>
-      <c r="E295" s="2">
-        <v>-1100187</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <v>-21954</v>
-      </c>
-      <c r="C296" s="2">
-        <v>-180200</v>
-      </c>
-      <c r="E296" s="2">
-        <v>-1100187</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <v>-21955</v>
-      </c>
-      <c r="C297" s="2">
-        <v>-180201</v>
-      </c>
-      <c r="E297" s="2">
-        <v>-1100188</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <v>-21955</v>
-      </c>
-      <c r="C298" s="2">
-        <v>-180201</v>
-      </c>
-      <c r="E298" s="2">
-        <v>-1100191</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <v>-21955</v>
-      </c>
-      <c r="C299" s="2">
-        <v>-180201</v>
-      </c>
-      <c r="E299" s="2">
-        <v>-1100191</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <v>-21956</v>
-      </c>
-      <c r="C300" s="2">
-        <v>-180203</v>
-      </c>
-      <c r="E300" s="2">
-        <v>-1100191</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>-21956</v>
-      </c>
-      <c r="C301" s="2">
-        <v>-180203</v>
-      </c>
-      <c r="E301" s="2">
-        <v>-1100192</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302">
-        <v>-21962</v>
-      </c>
-      <c r="C302" s="2">
-        <v>-180204</v>
-      </c>
-      <c r="E302" s="2">
-        <v>-1100192</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303">
-        <v>-21963</v>
-      </c>
-      <c r="C303" s="2">
-        <v>-180204</v>
-      </c>
-      <c r="E303" s="2">
-        <v>-1100194</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <v>-21964</v>
-      </c>
-      <c r="C304" s="2">
-        <v>-180205</v>
-      </c>
-      <c r="E304" s="2">
-        <v>-1100195</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305">
-        <v>-21965</v>
-      </c>
-      <c r="C305" s="2">
-        <v>-180205</v>
-      </c>
-      <c r="E305" s="2">
-        <v>-1100195</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306">
-        <v>-21965</v>
-      </c>
-      <c r="C306" s="2">
-        <v>-180206</v>
-      </c>
-      <c r="E306" s="2">
-        <v>-1100197</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307">
-        <v>-21967</v>
-      </c>
-      <c r="C307" s="2">
-        <v>-180207</v>
-      </c>
-      <c r="E307" s="2">
-        <v>-1100198</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308">
-        <v>-21968</v>
-      </c>
-      <c r="C308" s="2">
-        <v>-180209</v>
-      </c>
-      <c r="E308" s="2">
-        <v>-1100199</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309">
-        <v>-21971</v>
-      </c>
-      <c r="C309" s="2">
-        <v>-180210</v>
-      </c>
-      <c r="E309" s="2">
-        <v>-1100202</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310">
-        <v>-21973</v>
-      </c>
-      <c r="C310" s="2">
-        <v>-180211</v>
-      </c>
-      <c r="E310" s="2">
-        <v>-1100204</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311">
-        <v>-21974</v>
-      </c>
-      <c r="C311" s="2">
-        <v>-180212</v>
-      </c>
-      <c r="E311" s="2">
-        <v>-1100204</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312">
-        <v>-21977</v>
-      </c>
-      <c r="C312" s="2">
-        <v>-180214</v>
-      </c>
-      <c r="E312" s="2">
-        <v>-1100206</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313">
-        <v>-21978</v>
-      </c>
-      <c r="C313" s="2">
-        <v>-180214</v>
-      </c>
-      <c r="E313" s="2">
-        <v>-1100209</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314">
-        <v>-21978</v>
-      </c>
-      <c r="C314" s="2">
-        <v>-180214</v>
-      </c>
-      <c r="E314" s="2">
-        <v>-1100209</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315">
-        <v>-21979</v>
-      </c>
-      <c r="C315" s="2">
-        <v>-180216</v>
-      </c>
-      <c r="E315" s="2">
-        <v>-1100210</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316">
-        <v>-21980</v>
-      </c>
-      <c r="C316" s="2">
-        <v>-180216</v>
-      </c>
-      <c r="E316" s="2">
-        <v>-1100213</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317">
-        <v>-21981</v>
-      </c>
-      <c r="C317" s="2">
-        <v>-180220</v>
-      </c>
-      <c r="E317" s="2">
-        <v>-1100214</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318">
-        <v>-21982</v>
-      </c>
-      <c r="C318" s="2">
-        <v>-180221</v>
-      </c>
-      <c r="E318" s="2">
-        <v>-1100214</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319">
-        <v>-21982</v>
-      </c>
-      <c r="C319" s="2">
-        <v>-180221</v>
-      </c>
-      <c r="E319" s="2">
-        <v>-1100214</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320">
-        <v>-21982</v>
-      </c>
-      <c r="C320" s="2">
-        <v>-180222</v>
-      </c>
-      <c r="E320" s="2">
-        <v>-1100214</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321">
-        <v>-21983</v>
-      </c>
-      <c r="C321" s="2">
-        <v>-180223</v>
-      </c>
-      <c r="E321" s="2">
-        <v>-1100215</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322">
-        <v>-21985</v>
-      </c>
-      <c r="C322" s="2">
-        <v>-180228</v>
-      </c>
-      <c r="E322" s="2">
-        <v>-1100216</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323">
-        <v>-21988</v>
-      </c>
-      <c r="C323" s="2">
-        <v>-180229</v>
-      </c>
-      <c r="E323" s="2">
-        <v>-1100216</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324">
-        <v>-21990</v>
-      </c>
-      <c r="C324" s="2">
-        <v>-180230</v>
-      </c>
-      <c r="E324" s="2">
-        <v>-1100216</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325">
-        <v>-21992</v>
-      </c>
-      <c r="C325" s="2">
-        <v>-180231</v>
-      </c>
-      <c r="E325" s="2">
-        <v>-1100216</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326">
-        <v>-21992</v>
-      </c>
-      <c r="C326" s="2">
-        <v>-180232</v>
-      </c>
-      <c r="E326" s="2">
-        <v>-1100217</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327">
-        <v>-21993</v>
-      </c>
-      <c r="C327" s="2">
-        <v>-180234</v>
-      </c>
-      <c r="E327" s="2">
-        <v>-1100220</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328">
-        <v>-21993</v>
-      </c>
-      <c r="C328" s="2">
-        <v>-180236</v>
-      </c>
-      <c r="E328" s="2">
-        <v>-1100221</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329">
-        <v>-21993</v>
-      </c>
-      <c r="C329" s="2">
-        <v>-180240</v>
-      </c>
-      <c r="E329" s="2">
-        <v>-1100221</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330">
-        <v>-21997</v>
-      </c>
-      <c r="C330" s="2">
-        <v>-180240</v>
-      </c>
-      <c r="E330" s="2">
-        <v>-1100222</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331">
-        <v>-21997</v>
-      </c>
-      <c r="C331" s="2">
-        <v>-180242</v>
-      </c>
-      <c r="E331" s="2">
-        <v>-1100222</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332">
-        <v>-22000</v>
-      </c>
-      <c r="C332" s="2">
-        <v>-180242</v>
-      </c>
-      <c r="E332" s="2">
-        <v>-1100222</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333">
-        <v>-22001</v>
-      </c>
-      <c r="C333" s="2">
-        <v>-180242</v>
-      </c>
-      <c r="E333" s="2">
-        <v>-1100223</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334">
-        <v>-22001</v>
-      </c>
-      <c r="C334" s="2">
-        <v>-180244</v>
-      </c>
-      <c r="E334" s="2">
-        <v>-1100223</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335">
-        <v>-22001</v>
-      </c>
-      <c r="C335" s="2">
-        <v>-180245</v>
-      </c>
-      <c r="E335" s="2">
-        <v>-1100224</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336">
-        <v>-22004</v>
-      </c>
-      <c r="C336" s="2">
-        <v>-180245</v>
-      </c>
-      <c r="E336" s="2">
-        <v>-1100225</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337">
-        <v>-22004</v>
-      </c>
-      <c r="C337" s="2">
-        <v>-180246</v>
-      </c>
-      <c r="E337" s="2">
-        <v>-1100226</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338">
-        <v>-22005</v>
-      </c>
-      <c r="C338" s="2">
-        <v>-180246</v>
-      </c>
-      <c r="E338" s="2">
-        <v>-1100227</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339">
-        <v>-22005</v>
-      </c>
-      <c r="C339" s="2">
-        <v>-180247</v>
-      </c>
-      <c r="E339" s="2">
-        <v>-1100227</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340">
-        <v>-22005</v>
-      </c>
-      <c r="C340" s="2">
-        <v>-180250</v>
-      </c>
-      <c r="E340" s="2">
-        <v>-1100228</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341">
-        <v>-22006</v>
-      </c>
-      <c r="C341" s="2">
-        <v>-180250</v>
-      </c>
-      <c r="E341" s="2">
-        <v>-1100230</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342">
-        <v>-22006</v>
-      </c>
-      <c r="C342" s="2">
-        <v>-180251</v>
-      </c>
-      <c r="E342" s="2">
-        <v>-1100233</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343">
-        <v>-22007</v>
-      </c>
-      <c r="C343" s="2">
-        <v>-180253</v>
-      </c>
-      <c r="E343" s="2">
-        <v>-1100234</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344">
-        <v>-22008</v>
-      </c>
-      <c r="C344" s="2">
-        <v>-180254</v>
-      </c>
-      <c r="E344" s="2">
-        <v>-1100234</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345">
-        <v>-22008</v>
-      </c>
-      <c r="C345" s="2">
-        <v>-180255</v>
-      </c>
-      <c r="E345" s="2">
-        <v>-1100234</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346">
-        <v>-22013</v>
-      </c>
-      <c r="C346" s="2">
-        <v>-180258</v>
-      </c>
-      <c r="E346" s="2">
-        <v>-1100235</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347">
-        <v>-22017</v>
-      </c>
-      <c r="C347" s="2">
-        <v>-180259</v>
-      </c>
-      <c r="E347" s="2">
-        <v>-1100235</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348">
-        <v>-22018</v>
-      </c>
-      <c r="C348" s="2">
-        <v>-180260</v>
-      </c>
-      <c r="E348" s="2">
-        <v>-1100236</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349">
-        <v>-22019</v>
-      </c>
-      <c r="C349" s="2">
-        <v>-180260</v>
-      </c>
-      <c r="E349" s="2">
-        <v>-1100237</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350">
-        <v>-22020</v>
-      </c>
-      <c r="C350" s="2">
-        <v>-180260</v>
-      </c>
-      <c r="E350" s="2">
-        <v>-1100238</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351">
-        <v>-22022</v>
-      </c>
-      <c r="C351" s="2">
-        <v>-180261</v>
-      </c>
-      <c r="E351" s="2">
-        <v>-1100238</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352">
-        <v>-22022</v>
-      </c>
-      <c r="C352" s="2">
-        <v>-180261</v>
-      </c>
-      <c r="E352" s="2">
-        <v>-1100239</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353">
-        <v>-22022</v>
-      </c>
-      <c r="C353" s="2">
-        <v>-180262</v>
-      </c>
-      <c r="E353" s="2">
-        <v>-1100240</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354">
-        <v>-22025</v>
-      </c>
-      <c r="C354" s="2">
-        <v>-180263</v>
-      </c>
-      <c r="E354" s="2">
-        <v>-1100242</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355">
-        <v>-22027</v>
-      </c>
-      <c r="C355" s="2">
-        <v>-180264</v>
-      </c>
-      <c r="E355" s="2">
-        <v>-1100243</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356">
-        <v>-22028</v>
-      </c>
-      <c r="C356" s="2">
-        <v>-180265</v>
-      </c>
-      <c r="E356" s="2">
-        <v>-1100245</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357">
-        <v>-22029</v>
-      </c>
-      <c r="C357" s="2">
-        <v>-180266</v>
-      </c>
-      <c r="E357" s="2">
-        <v>-1100246</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358">
-        <v>-22042</v>
-      </c>
-      <c r="C358" s="2">
-        <v>-180266</v>
-      </c>
-      <c r="E358" s="2">
-        <v>-1100247</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359">
-        <v>-22043</v>
-      </c>
-      <c r="C359" s="2">
-        <v>-180266</v>
-      </c>
-      <c r="E359" s="2">
-        <v>-1100247</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360">
-        <v>-22043</v>
-      </c>
-      <c r="C360" s="2">
-        <v>-180267</v>
-      </c>
-      <c r="E360" s="2">
-        <v>-1100250</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361">
-        <v>-22044</v>
-      </c>
-      <c r="C361" s="2">
-        <v>-180267</v>
-      </c>
-      <c r="E361" s="2">
-        <v>-1100252</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362">
-        <v>-22046</v>
-      </c>
-      <c r="C362" s="2">
-        <v>-180268</v>
-      </c>
-      <c r="E362" s="2">
-        <v>-1100252</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363">
-        <v>-22048</v>
-      </c>
-      <c r="C363" s="2">
-        <v>-180268</v>
-      </c>
-      <c r="E363" s="2">
-        <v>-1100253</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364">
-        <v>-22048</v>
-      </c>
-      <c r="C364" s="2">
-        <v>-180270</v>
-      </c>
-      <c r="E364" s="2">
-        <v>-1100253</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365">
-        <v>-22048</v>
-      </c>
-      <c r="C365" s="2">
-        <v>-180276</v>
-      </c>
-      <c r="E365" s="2">
-        <v>-1100254</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366">
-        <v>-22049</v>
-      </c>
-      <c r="C366" s="2">
-        <v>-180281</v>
-      </c>
-      <c r="E366" s="2">
-        <v>-1100255</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367">
-        <v>-22050</v>
-      </c>
-      <c r="C367" s="2">
-        <v>-180282</v>
-      </c>
-      <c r="E367" s="2">
-        <v>-1100255</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368">
-        <v>-22053</v>
-      </c>
-      <c r="C368" s="2">
-        <v>-180282</v>
-      </c>
-      <c r="E368" s="2">
-        <v>-1100255</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369">
-        <v>-22055</v>
-      </c>
-      <c r="C369" s="2">
-        <v>-180285</v>
-      </c>
-      <c r="E369" s="2">
-        <v>-1100255</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370">
-        <v>-22055</v>
-      </c>
-      <c r="C370" s="2">
-        <v>-180286</v>
-      </c>
-      <c r="E370" s="2">
-        <v>-1100257</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371">
-        <v>-22055</v>
-      </c>
-      <c r="C371" s="2">
-        <v>-180289</v>
-      </c>
-      <c r="E371" s="2">
-        <v>-1100267</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372">
-        <v>-22061</v>
-      </c>
-      <c r="C372" s="2">
-        <v>-180293</v>
-      </c>
-      <c r="E372" s="2">
-        <v>-1100269</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373">
-        <v>-22062</v>
-      </c>
-      <c r="C373" s="2">
-        <v>-180293</v>
-      </c>
-      <c r="E373" s="2">
-        <v>-1100269</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374">
-        <v>-22064</v>
-      </c>
-      <c r="C374" s="2">
-        <v>-180296</v>
-      </c>
-      <c r="E374" s="2">
-        <v>-1100269</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375">
-        <v>-22065</v>
-      </c>
-      <c r="C375" s="2">
-        <v>-180296</v>
-      </c>
-      <c r="E375" s="2">
-        <v>-1100271</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376">
-        <v>-22068</v>
-      </c>
-      <c r="C376" s="2">
-        <v>-180297</v>
-      </c>
-      <c r="E376" s="2">
-        <v>-1100272</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377">
-        <v>-22072</v>
-      </c>
-      <c r="C377" s="2">
-        <v>-180300</v>
-      </c>
-      <c r="E377" s="2">
-        <v>-1100272</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378">
-        <v>-22074</v>
-      </c>
-      <c r="C378" s="2">
-        <v>-180301</v>
-      </c>
-      <c r="E378" s="2">
-        <v>-1100272</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379">
-        <v>-22075</v>
-      </c>
-      <c r="C379" s="2">
-        <v>-180301</v>
-      </c>
-      <c r="E379" s="2">
-        <v>-1100273</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380">
-        <v>-22076</v>
-      </c>
-      <c r="C380" s="2">
-        <v>-180305</v>
-      </c>
-      <c r="E380" s="2">
-        <v>-1100274</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381">
-        <v>-22077</v>
-      </c>
-      <c r="C381" s="2">
-        <v>-180306</v>
-      </c>
-      <c r="E381" s="2">
-        <v>-1100274</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382">
-        <v>-22077</v>
-      </c>
-      <c r="C382" s="2">
-        <v>-180306</v>
-      </c>
-      <c r="E382" s="2">
-        <v>-1100275</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383">
-        <v>-22077</v>
-      </c>
-      <c r="C383" s="2">
-        <v>-180307</v>
-      </c>
-      <c r="E383" s="2">
-        <v>-1100275</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384">
-        <v>-22077</v>
-      </c>
-      <c r="C384" s="2">
-        <v>-180307</v>
-      </c>
-      <c r="E384" s="2">
-        <v>-1100277</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385">
-        <v>-22078</v>
-      </c>
-      <c r="C385" s="2">
-        <v>-180307</v>
-      </c>
-      <c r="E385" s="2">
-        <v>-1100278</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386">
-        <v>-22079</v>
-      </c>
-      <c r="C386" s="2">
-        <v>-180307</v>
-      </c>
-      <c r="E386" s="2">
-        <v>-1100278</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387">
-        <v>-22080</v>
-      </c>
-      <c r="C387" s="2">
-        <v>-180308</v>
-      </c>
-      <c r="E387" s="2">
-        <v>-1100280</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388">
-        <v>-22081</v>
-      </c>
-      <c r="C388" s="2">
-        <v>-180312</v>
-      </c>
-      <c r="E388" s="2">
-        <v>-1100282</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389">
-        <v>-22084</v>
-      </c>
-      <c r="C389" s="2">
-        <v>-180313</v>
-      </c>
-      <c r="E389" s="2">
-        <v>-1100286</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390">
-        <v>-22086</v>
-      </c>
-      <c r="C390" s="2">
-        <v>-180318</v>
-      </c>
-      <c r="E390" s="2">
-        <v>-1100286</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391">
-        <v>-22092</v>
-      </c>
-      <c r="C391" s="2">
-        <v>-180318</v>
-      </c>
-      <c r="E391" s="2">
-        <v>-1100287</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392">
-        <v>-22092</v>
-      </c>
-      <c r="C392" s="2">
-        <v>-180320</v>
-      </c>
-      <c r="E392" s="2">
-        <v>-1100288</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393">
-        <v>-22092</v>
-      </c>
-      <c r="C393" s="2">
-        <v>-180322</v>
-      </c>
-      <c r="E393" s="2">
-        <v>-1100288</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394">
-        <v>-22096</v>
-      </c>
-      <c r="C394" s="2">
-        <v>-180322</v>
-      </c>
-      <c r="E394" s="2">
-        <v>-1100288</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395">
-        <v>-22096</v>
-      </c>
-      <c r="C395" s="2">
-        <v>-180322</v>
-      </c>
-      <c r="E395" s="2">
-        <v>-1100288</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396">
-        <v>-22097</v>
-      </c>
-      <c r="C396" s="2">
-        <v>-180324</v>
-      </c>
-      <c r="E396" s="2">
-        <v>-1100289</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397">
-        <v>-22098</v>
-      </c>
-      <c r="C397" s="2">
-        <v>-180324</v>
-      </c>
-      <c r="E397" s="2">
-        <v>-1100290</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398">
-        <v>-22100</v>
-      </c>
-      <c r="C398" s="2">
-        <v>-180324</v>
-      </c>
-      <c r="E398" s="2">
-        <v>-1100291</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399">
-        <v>-22104</v>
-      </c>
-      <c r="C399" s="2">
-        <v>-180326</v>
-      </c>
-      <c r="E399" s="2">
-        <v>-1100292</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400">
-        <v>-22106</v>
-      </c>
-      <c r="C400" s="2">
-        <v>-180326</v>
-      </c>
-      <c r="E400" s="2">
-        <v>-1100293</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401">
-        <v>-22107</v>
-      </c>
-      <c r="C401" s="2">
-        <v>-180327</v>
-      </c>
-      <c r="E401" s="2">
-        <v>-1100293</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402">
-        <v>-22110</v>
-      </c>
-      <c r="C402" s="2">
-        <v>-180327</v>
-      </c>
-      <c r="E402" s="2">
-        <v>-1100294</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403">
-        <v>-22113</v>
-      </c>
-      <c r="C403" s="2">
-        <v>-180328</v>
-      </c>
-      <c r="E403" s="2">
-        <v>-1100295</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404">
-        <v>-22120</v>
-      </c>
-      <c r="C404" s="2">
-        <v>-180328</v>
-      </c>
-      <c r="E404" s="2">
-        <v>-1100295</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405">
-        <v>-22121</v>
-      </c>
-      <c r="C405" s="2">
-        <v>-180329</v>
-      </c>
-      <c r="E405" s="2">
-        <v>-1100296</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406">
-        <v>-22122</v>
-      </c>
-      <c r="C406" s="2">
-        <v>-180329</v>
-      </c>
-      <c r="E406" s="2">
-        <v>-1100297</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407">
-        <v>-22125</v>
-      </c>
-      <c r="C407" s="2">
-        <v>-180329</v>
-      </c>
-      <c r="E407" s="2">
-        <v>-1100298</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408">
-        <v>-22127</v>
-      </c>
-      <c r="C408" s="2">
-        <v>-180333</v>
-      </c>
-      <c r="E408" s="2">
-        <v>-1100298</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409">
-        <v>-22135</v>
-      </c>
-      <c r="C409" s="2">
-        <v>-180334</v>
-      </c>
-      <c r="E409" s="2">
-        <v>-1100299</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410">
-        <v>-22139</v>
-      </c>
-      <c r="C410" s="2">
-        <v>-180335</v>
-      </c>
-      <c r="E410" s="2">
-        <v>-1100300</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411">
-        <v>-22142</v>
-      </c>
-      <c r="C411" s="2">
-        <v>-180335</v>
-      </c>
-      <c r="E411" s="2">
-        <v>-1100301</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412">
-        <v>-22144</v>
-      </c>
-      <c r="C412" s="2">
-        <v>-180336</v>
-      </c>
-      <c r="E412" s="2">
-        <v>-1100301</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A413">
-        <v>-22144</v>
-      </c>
-      <c r="C413" s="2">
-        <v>-180337</v>
-      </c>
-      <c r="E413" s="2">
-        <v>-1100301</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414">
-        <v>-22145</v>
-      </c>
-      <c r="C414" s="2">
-        <v>-180337</v>
-      </c>
-      <c r="E414" s="2">
-        <v>-1100302</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A415">
-        <v>-22145</v>
-      </c>
-      <c r="C415" s="2">
-        <v>-180338</v>
-      </c>
-      <c r="E415" s="2">
-        <v>-1100302</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416">
-        <v>-22146</v>
-      </c>
-      <c r="C416" s="2">
-        <v>-180340</v>
-      </c>
-      <c r="E416" s="2">
-        <v>-1100303</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417">
-        <v>-22150</v>
-      </c>
-      <c r="C417" s="2">
-        <v>-180341</v>
-      </c>
-      <c r="E417" s="2">
-        <v>-1100304</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418">
-        <v>-22153</v>
-      </c>
-      <c r="C418" s="2">
-        <v>-180341</v>
-      </c>
-      <c r="E418" s="2">
-        <v>-1100304</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419">
-        <v>-22154</v>
-      </c>
-      <c r="C419" s="2">
-        <v>-180341</v>
-      </c>
-      <c r="E419" s="2">
-        <v>-1100305</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420">
-        <v>-22155</v>
-      </c>
-      <c r="C420" s="2">
-        <v>-180342</v>
-      </c>
-      <c r="E420" s="2">
-        <v>-1100305</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421">
-        <v>-22156</v>
-      </c>
-      <c r="C421" s="2">
-        <v>-180343</v>
-      </c>
-      <c r="E421" s="2">
-        <v>-1100305</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422">
-        <v>-22157</v>
-      </c>
-      <c r="C422" s="2">
-        <v>-180345</v>
-      </c>
-      <c r="E422" s="2">
-        <v>-1100309</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423">
-        <v>-22159</v>
-      </c>
-      <c r="C423" s="2">
-        <v>-180346</v>
-      </c>
-      <c r="E423" s="2">
-        <v>-1100310</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A424">
-        <v>-22159</v>
-      </c>
-      <c r="C424" s="2">
-        <v>-180346</v>
-      </c>
-      <c r="E424" s="2">
-        <v>-1100310</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A425">
-        <v>-22160</v>
-      </c>
-      <c r="C425" s="2">
-        <v>-180351</v>
-      </c>
-      <c r="E425" s="2">
-        <v>-1100317</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A426">
-        <v>-22168</v>
-      </c>
-      <c r="C426" s="2">
-        <v>-180352</v>
-      </c>
-      <c r="E426" s="2">
-        <v>-1100319</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A427">
-        <v>-22168</v>
-      </c>
-      <c r="C427" s="2">
-        <v>-180354</v>
-      </c>
-      <c r="E427" s="2">
-        <v>-1100320</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A428">
-        <v>-22170</v>
-      </c>
-      <c r="C428" s="2">
-        <v>-180354</v>
-      </c>
-      <c r="E428" s="2">
-        <v>-1100321</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A429">
-        <v>-22171</v>
-      </c>
-      <c r="C429" s="2">
-        <v>-180356</v>
-      </c>
-      <c r="E429" s="2">
-        <v>-1100321</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A430">
-        <v>-22173</v>
-      </c>
-      <c r="C430" s="2">
-        <v>-180357</v>
-      </c>
-      <c r="E430" s="2">
-        <v>-1100322</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A431">
-        <v>-22174</v>
-      </c>
-      <c r="C431" s="2">
-        <v>-180358</v>
-      </c>
-      <c r="E431" s="2">
-        <v>-1100323</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A432">
-        <v>-22177</v>
-      </c>
-      <c r="C432" s="2">
-        <v>-180359</v>
-      </c>
-      <c r="E432" s="2">
-        <v>-1100324</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433">
-        <v>-22177</v>
-      </c>
-      <c r="C433" s="2">
-        <v>-180362</v>
-      </c>
-      <c r="E433" s="2">
-        <v>-1100326</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A434">
-        <v>-22180</v>
-      </c>
-      <c r="C434" s="2">
-        <v>-180364</v>
-      </c>
-      <c r="E434" s="2">
-        <v>-1100328</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A435">
-        <v>-22180</v>
-      </c>
-      <c r="C435" s="2">
-        <v>-180364</v>
-      </c>
-      <c r="E435" s="2">
-        <v>-1100328</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A436">
-        <v>-22184</v>
-      </c>
-      <c r="C436" s="2">
-        <v>-180364</v>
-      </c>
-      <c r="E436" s="2">
-        <v>-1100329</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437">
-        <v>-22187</v>
-      </c>
-      <c r="C437" s="2">
-        <v>-180365</v>
-      </c>
-      <c r="E437" s="2">
-        <v>-1100333</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438">
-        <v>-22187</v>
-      </c>
-      <c r="C438" s="2">
-        <v>-180367</v>
-      </c>
-      <c r="E438" s="2">
-        <v>-1100334</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439">
-        <v>-22191</v>
-      </c>
-      <c r="C439" s="2">
-        <v>-180368</v>
-      </c>
-      <c r="E439" s="2">
-        <v>-1100336</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A440">
-        <v>-22192</v>
-      </c>
-      <c r="C440" s="2">
-        <v>-180369</v>
-      </c>
-      <c r="E440" s="2">
-        <v>-1100336</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A441">
-        <v>-22200</v>
-      </c>
-      <c r="C441" s="2">
-        <v>-180370</v>
-      </c>
-      <c r="E441" s="2">
-        <v>-1100337</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442">
-        <v>-22202</v>
-      </c>
-      <c r="C442" s="2">
-        <v>-180371</v>
-      </c>
-      <c r="E442" s="2">
-        <v>-1100340</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443">
-        <v>-22208</v>
-      </c>
-      <c r="C443" s="2">
-        <v>-180373</v>
-      </c>
-      <c r="E443" s="2">
-        <v>-1100340</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444">
-        <v>-22208</v>
-      </c>
-      <c r="C444" s="2">
-        <v>-180373</v>
-      </c>
-      <c r="E444" s="2">
-        <v>-1100340</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A445">
-        <v>-22209</v>
-      </c>
-      <c r="C445" s="2">
-        <v>-180374</v>
-      </c>
-      <c r="E445" s="2">
-        <v>-1100340</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A446">
-        <v>-22214</v>
-      </c>
-      <c r="C446" s="2">
-        <v>-180376</v>
-      </c>
-      <c r="E446" s="2">
-        <v>-1100342</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A447">
-        <v>-22214</v>
-      </c>
-      <c r="C447" s="2">
-        <v>-180377</v>
-      </c>
-      <c r="E447" s="2">
-        <v>-1100343</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A448">
-        <v>-22216</v>
-      </c>
-      <c r="C448" s="2">
-        <v>-180379</v>
-      </c>
-      <c r="E448" s="2">
-        <v>-1100346</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A449">
-        <v>-22216</v>
-      </c>
-      <c r="C449" s="2">
-        <v>-180379</v>
-      </c>
-      <c r="E449" s="2">
-        <v>-1100348</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A450">
-        <v>-22221</v>
-      </c>
-      <c r="C450" s="2">
-        <v>-180380</v>
-      </c>
-      <c r="E450" s="2">
-        <v>-1100349</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A451">
-        <v>-22222</v>
-      </c>
-      <c r="C451" s="2">
-        <v>-180385</v>
-      </c>
-      <c r="E451" s="2">
-        <v>-1100350</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A452">
-        <v>-22227</v>
-      </c>
-      <c r="C452" s="2">
-        <v>-180386</v>
-      </c>
-      <c r="E452" s="2">
-        <v>-1100350</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A453">
-        <v>-22229</v>
-      </c>
-      <c r="C453" s="2">
-        <v>-180386</v>
-      </c>
-      <c r="E453" s="2">
-        <v>-1100354</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A454">
-        <v>-22230</v>
-      </c>
-      <c r="C454" s="2">
-        <v>-180387</v>
-      </c>
-      <c r="E454" s="2">
-        <v>-1100355</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455">
-        <v>-22236</v>
-      </c>
-      <c r="C455" s="2">
-        <v>-180388</v>
-      </c>
-      <c r="E455" s="2">
-        <v>-1100356</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A456">
-        <v>-22238</v>
-      </c>
-      <c r="C456" s="2">
-        <v>-180389</v>
-      </c>
-      <c r="E456" s="2">
-        <v>-1100357</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457">
-        <v>-22240</v>
-      </c>
-      <c r="C457" s="2">
-        <v>-180389</v>
-      </c>
-      <c r="E457" s="2">
-        <v>-1100359</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A458">
-        <v>-22245</v>
-      </c>
-      <c r="C458" s="2">
-        <v>-180394</v>
-      </c>
-      <c r="E458" s="2">
-        <v>-1100360</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A459">
-        <v>-22246</v>
-      </c>
-      <c r="C459" s="2">
-        <v>-180394</v>
-      </c>
-      <c r="E459" s="2">
-        <v>-1100362</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A460">
-        <v>-22248</v>
-      </c>
-      <c r="C460" s="2">
-        <v>-180394</v>
-      </c>
-      <c r="E460" s="2">
-        <v>-1100363</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A461">
-        <v>-22257</v>
-      </c>
-      <c r="C461" s="2">
-        <v>-180396</v>
-      </c>
-      <c r="E461" s="2">
-        <v>-1100363</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A462">
-        <v>-22265</v>
-      </c>
-      <c r="C462" s="2">
-        <v>-180397</v>
-      </c>
-      <c r="E462" s="2">
-        <v>-1100365</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A463">
-        <v>-22272</v>
-      </c>
-      <c r="C463" s="2">
-        <v>-180397</v>
-      </c>
-      <c r="E463" s="2">
-        <v>-1100371</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A464">
-        <v>-22276</v>
-      </c>
-      <c r="C464" s="2">
-        <v>-180400</v>
-      </c>
-      <c r="E464" s="2">
-        <v>-1100378</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465">
-        <v>-22281</v>
-      </c>
-      <c r="C465" s="2">
-        <v>-180406</v>
-      </c>
-      <c r="E465" s="2">
-        <v>-1100378</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466">
-        <v>-22283</v>
-      </c>
-      <c r="C466" s="2">
-        <v>-180407</v>
-      </c>
-      <c r="E466" s="2">
-        <v>-1100381</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467">
-        <v>-22286</v>
-      </c>
-      <c r="C467" s="2">
-        <v>-180407</v>
-      </c>
-      <c r="E467" s="2">
-        <v>-1100382</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468">
-        <v>-22286</v>
-      </c>
-      <c r="C468" s="2">
-        <v>-180407</v>
-      </c>
-      <c r="E468" s="2">
-        <v>-1100383</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469">
-        <v>-22286</v>
-      </c>
-      <c r="C469" s="2">
-        <v>-180408</v>
-      </c>
-      <c r="E469" s="2">
-        <v>-1100386</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470">
-        <v>-22288</v>
-      </c>
-      <c r="C470" s="2">
-        <v>-180418</v>
-      </c>
-      <c r="E470" s="2">
-        <v>-1100386</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A471">
-        <v>-22296</v>
-      </c>
-      <c r="C471" s="2">
-        <v>-180425</v>
-      </c>
-      <c r="E471" s="2">
-        <v>-1100386</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472">
-        <v>-22299</v>
-      </c>
-      <c r="C472" s="2">
-        <v>-180425</v>
-      </c>
-      <c r="E472" s="2">
-        <v>-1100388</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473">
-        <v>-22303</v>
-      </c>
-      <c r="C473" s="2">
-        <v>-180425</v>
-      </c>
-      <c r="E473" s="2">
-        <v>-1100389</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474">
-        <v>-22304</v>
-      </c>
-      <c r="C474" s="2">
-        <v>-180425</v>
-      </c>
-      <c r="E474" s="2">
-        <v>-1100392</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475">
-        <v>-22306</v>
-      </c>
-      <c r="C475" s="2">
-        <v>-180426</v>
-      </c>
-      <c r="E475" s="2">
-        <v>-1100392</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476">
-        <v>-22309</v>
-      </c>
-      <c r="C476" s="2">
-        <v>-180429</v>
-      </c>
-      <c r="E476" s="2">
-        <v>-1100396</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477">
-        <v>-22312</v>
-      </c>
-      <c r="C477" s="2">
-        <v>-180430</v>
-      </c>
-      <c r="E477" s="2">
-        <v>-1100398</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478">
-        <v>-22313</v>
-      </c>
-      <c r="C478" s="2">
-        <v>-180435</v>
-      </c>
-      <c r="E478" s="2">
-        <v>-1100400</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479">
-        <v>-22316</v>
-      </c>
-      <c r="C479" s="2">
-        <v>-180436</v>
-      </c>
-      <c r="E479" s="2">
-        <v>-1100400</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A480">
-        <v>-22321</v>
-      </c>
-      <c r="C480" s="2">
-        <v>-180442</v>
-      </c>
-      <c r="E480" s="2">
-        <v>-1100400</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A481">
-        <v>-22329</v>
-      </c>
-      <c r="C481" s="2">
-        <v>-180452</v>
-      </c>
-      <c r="E481" s="2">
-        <v>-1100402</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482">
-        <v>-22342</v>
-      </c>
-      <c r="C482" s="2">
-        <v>-180455</v>
-      </c>
-      <c r="E482" s="2">
-        <v>-1100402</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A483">
-        <v>-22343</v>
-      </c>
-      <c r="C483" s="2">
-        <v>-180464</v>
-      </c>
-      <c r="E483" s="2">
-        <v>-1100410</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484">
-        <v>-22349</v>
-      </c>
-      <c r="C484" s="2">
-        <v>-180466</v>
-      </c>
-      <c r="E484" s="2">
-        <v>-1100410</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485">
-        <v>-22354</v>
-      </c>
-      <c r="C485" s="2">
-        <v>-180468</v>
-      </c>
-      <c r="E485" s="2">
-        <v>-1100414</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486">
-        <v>-22373</v>
-      </c>
-      <c r="C486" s="2">
-        <v>-180472</v>
-      </c>
-      <c r="E486" s="2">
-        <v>-1100419</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487">
-        <v>-22374</v>
-      </c>
-      <c r="C487" s="2">
-        <v>-180473</v>
-      </c>
-      <c r="E487" s="2">
-        <v>-1100420</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A488">
-        <v>-22376</v>
-      </c>
-      <c r="C488" s="2">
-        <v>-180475</v>
-      </c>
-      <c r="E488" s="2">
-        <v>-1100422</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489">
-        <v>-22401</v>
-      </c>
-      <c r="C489" s="2">
-        <v>-180483</v>
-      </c>
-      <c r="E489" s="2">
-        <v>-1100422</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490">
-        <v>-22401</v>
-      </c>
-      <c r="C490" s="2">
-        <v>-180501</v>
-      </c>
-      <c r="E490" s="2">
-        <v>-1100422</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A491">
-        <v>-22410</v>
-      </c>
-      <c r="C491" s="2">
-        <v>-180502</v>
-      </c>
-      <c r="E491" s="2">
-        <v>-1100423</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492">
-        <v>-22414</v>
-      </c>
-      <c r="C492" s="2">
-        <v>-180503</v>
-      </c>
-      <c r="E492" s="2">
-        <v>-1100424</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493">
-        <v>-22419</v>
-      </c>
-      <c r="C493" s="2">
-        <v>-180506</v>
-      </c>
-      <c r="E493" s="2">
-        <v>-1100425</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494">
-        <v>-22434</v>
-      </c>
-      <c r="C494" s="2">
-        <v>-180506</v>
-      </c>
-      <c r="E494" s="2">
-        <v>-1100426</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495">
-        <v>-22446</v>
-      </c>
-      <c r="C495" s="2">
-        <v>-180511</v>
-      </c>
-      <c r="E495" s="2">
-        <v>-1100427</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496">
-        <v>-22451</v>
-      </c>
-      <c r="C496" s="2">
-        <v>-180513</v>
-      </c>
-      <c r="E496" s="2">
-        <v>-1100427</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A497">
-        <v>-22453</v>
-      </c>
-      <c r="C497" s="2">
-        <v>-180514</v>
-      </c>
-      <c r="E497" s="2">
-        <v>-1100427</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498">
-        <v>-22457</v>
-      </c>
-      <c r="C498" s="2">
-        <v>-180515</v>
-      </c>
-      <c r="E498" s="2">
-        <v>-1100428</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499">
-        <v>-22503</v>
-      </c>
-      <c r="C499" s="2">
-        <v>-180515</v>
-      </c>
-      <c r="E499" s="2">
-        <v>-1100429</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A500">
-        <v>-22507</v>
-      </c>
-      <c r="C500" s="2">
-        <v>-180520</v>
-      </c>
-      <c r="E500" s="2">
-        <v>-1100431</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501">
-        <v>-22529</v>
-      </c>
-      <c r="C501" s="2">
-        <v>-180523</v>
-      </c>
-      <c r="E501" s="2">
-        <v>-1100434</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502">
-        <v>-22565</v>
-      </c>
-      <c r="C502" s="2">
-        <v>-180525</v>
-      </c>
-      <c r="E502" s="2">
-        <v>-1100441</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503">
-        <v>-22571</v>
-      </c>
-      <c r="C503" s="2">
-        <v>-180530</v>
-      </c>
-      <c r="E503" s="2">
-        <v>-1100441</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504">
-        <v>-22602</v>
-      </c>
-      <c r="C504" s="2">
-        <v>-180531</v>
-      </c>
-      <c r="E504" s="2">
-        <v>-1100443</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C505" s="2">
-        <v>-180533</v>
-      </c>
-      <c r="E505" s="2">
-        <v>-1100444</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C506" s="2">
-        <v>-180536</v>
-      </c>
-      <c r="E506" s="2">
-        <v>-1100449</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C507" s="2">
-        <v>-180539</v>
-      </c>
-      <c r="E507" s="2">
-        <v>-1100454</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C508" s="2">
-        <v>-180543</v>
-      </c>
-      <c r="E508" s="2">
-        <v>-1100455</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C509" s="2">
-        <v>-180558</v>
-      </c>
-      <c r="E509" s="2">
-        <v>-1100455</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C510" s="2">
-        <v>-180572</v>
-      </c>
-      <c r="E510" s="2">
-        <v>-1100456</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C511" s="2">
-        <v>-180590</v>
-      </c>
-      <c r="E511" s="2">
-        <v>-1100457</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C512" s="2">
-        <v>-180590</v>
-      </c>
-      <c r="E512" s="2">
-        <v>-1100458</v>
-      </c>
-    </row>
-    <row r="513" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C513" s="2">
-        <v>-180597</v>
-      </c>
-      <c r="E513" s="2">
-        <v>-1100459</v>
-      </c>
-    </row>
-    <row r="514" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C514" s="2">
-        <v>-180605</v>
-      </c>
-      <c r="E514" s="2">
-        <v>-1100463</v>
-      </c>
-    </row>
-    <row r="515" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C515" s="2">
-        <v>-180608</v>
-      </c>
-      <c r="E515" s="2">
-        <v>-1100465</v>
-      </c>
-    </row>
-    <row r="516" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C516" s="2">
-        <v>-180609</v>
-      </c>
-      <c r="E516" s="2">
-        <v>-1100467</v>
-      </c>
-    </row>
-    <row r="517" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C517" s="2">
-        <v>-180611</v>
-      </c>
-      <c r="E517" s="2">
-        <v>-1100468</v>
-      </c>
-    </row>
-    <row r="518" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C518" s="2">
-        <v>-180615</v>
-      </c>
-      <c r="E518" s="2">
-        <v>-1100470</v>
-      </c>
-    </row>
-    <row r="519" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C519" s="2">
-        <v>-180619</v>
-      </c>
-      <c r="E519" s="2">
-        <v>-1100471</v>
-      </c>
-    </row>
-    <row r="520" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C520" s="2">
-        <v>-180622</v>
-      </c>
-      <c r="E520" s="2">
-        <v>-1100471</v>
-      </c>
-    </row>
-    <row r="521" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C521" s="2">
-        <v>-180623</v>
-      </c>
-      <c r="E521" s="2">
-        <v>-1100472</v>
-      </c>
-    </row>
-    <row r="522" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C522" s="2">
-        <v>-180627</v>
-      </c>
-      <c r="E522" s="2">
-        <v>-1100473</v>
-      </c>
-    </row>
-    <row r="523" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C523" s="2">
-        <v>-180651</v>
-      </c>
-      <c r="E523" s="2">
-        <v>-1100484</v>
-      </c>
-    </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C524" s="2">
-        <v>-180656</v>
-      </c>
-      <c r="E524" s="2">
-        <v>-1100484</v>
-      </c>
-    </row>
-    <row r="525" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C525" s="2">
-        <v>-180659</v>
-      </c>
-      <c r="E525" s="2">
-        <v>-1100485</v>
-      </c>
-    </row>
-    <row r="526" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C526" s="2">
-        <v>-180693</v>
-      </c>
-      <c r="E526" s="2">
-        <v>-1100486</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C527" s="2">
-        <v>-180710</v>
-      </c>
-      <c r="E527" s="2">
-        <v>-1100488</v>
-      </c>
-    </row>
-    <row r="528" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C528" s="2">
-        <v>-180722</v>
-      </c>
-      <c r="E528" s="2">
-        <v>-1100490</v>
-      </c>
-    </row>
-    <row r="529" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C529" s="2">
-        <v>-180728</v>
-      </c>
-      <c r="E529" s="2">
-        <v>-1100492</v>
-      </c>
-    </row>
-    <row r="530" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C530" s="2">
-        <v>-180797</v>
-      </c>
-      <c r="E530" s="2">
-        <v>-1100492</v>
-      </c>
-    </row>
-    <row r="531" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C531" s="2">
-        <v>-180878</v>
-      </c>
-      <c r="E531" s="2">
-        <v>-1100495</v>
-      </c>
-    </row>
-    <row r="532" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C532" s="2">
-        <v>-181028</v>
-      </c>
-      <c r="E532" s="2">
-        <v>-1100496</v>
-      </c>
-    </row>
-    <row r="533" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E533" s="2">
-        <v>-1100500</v>
-      </c>
-    </row>
-    <row r="534" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E534" s="2">
-        <v>-1100503</v>
-      </c>
-    </row>
-    <row r="535" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E535" s="2">
-        <v>-1100505</v>
-      </c>
-    </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E536" s="2">
-        <v>-1100508</v>
-      </c>
-    </row>
-    <row r="537" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E537" s="2">
-        <v>-1100508</v>
-      </c>
-    </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E538" s="2">
-        <v>-1100509</v>
-      </c>
-    </row>
-    <row r="539" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E539" s="2">
-        <v>-1100515</v>
-      </c>
-    </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E540" s="2">
-        <v>-1100520</v>
-      </c>
-    </row>
-    <row r="541" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E541" s="2">
-        <v>-1100526</v>
-      </c>
-    </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E542" s="2">
-        <v>-1100536</v>
-      </c>
-    </row>
-    <row r="543" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E543" s="2">
-        <v>-1100544</v>
-      </c>
-    </row>
-    <row r="544" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E544" s="2">
-        <v>-1100549</v>
-      </c>
-    </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E545" s="2">
-        <v>-1100550</v>
-      </c>
-    </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E546" s="2">
-        <v>-1100550</v>
-      </c>
-    </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E547" s="2">
-        <v>-1100552</v>
-      </c>
-    </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E548" s="2">
-        <v>-1100555</v>
-      </c>
-    </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E549" s="2">
-        <v>-1100556</v>
-      </c>
-    </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E550" s="2">
-        <v>-1100556</v>
-      </c>
-    </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E551" s="2">
-        <v>-1100557</v>
-      </c>
-    </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E552" s="2">
-        <v>-1100561</v>
-      </c>
-    </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E553" s="2">
-        <v>-1100570</v>
-      </c>
-    </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E554" s="2">
-        <v>-1100576</v>
-      </c>
-    </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E555" s="2">
-        <v>-1100578</v>
-      </c>
-    </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E556" s="2">
-        <v>-1100591</v>
-      </c>
-    </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E557" s="2">
-        <v>-1100591</v>
-      </c>
-    </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E558" s="2">
-        <v>-1100592</v>
-      </c>
-    </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E559" s="2">
-        <v>-1100596</v>
-      </c>
-    </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E560" s="2">
-        <v>-1100609</v>
-      </c>
-    </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E561" s="2">
-        <v>-1100610</v>
-      </c>
-    </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E562" s="2">
-        <v>-1100630</v>
-      </c>
-    </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E563" s="2">
-        <v>-1100633</v>
-      </c>
-    </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E564" s="2">
-        <v>-1100653</v>
-      </c>
-    </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E565" s="2">
-        <v>-1100656</v>
-      </c>
-    </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E566" s="2">
-        <v>-1100657</v>
-      </c>
-    </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E567" s="2">
-        <v>-1100658</v>
-      </c>
-    </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E568" s="2">
-        <v>-1100671</v>
-      </c>
-    </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E569" s="2">
-        <v>-1100689</v>
-      </c>
-    </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E570" s="2">
-        <v>-1100690</v>
-      </c>
-    </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E571" s="2">
-        <v>-1100710</v>
-      </c>
-    </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E572" s="2">
-        <v>-1100748</v>
-      </c>
-    </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E573" s="2">
-        <v>-1100753</v>
-      </c>
-    </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E574" s="2">
-        <v>-1100771</v>
-      </c>
-    </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E575" s="3">
-        <v>-1100803</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="M19" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="5">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7902,14 +1540,6 @@
       <c r="C26" s="2">
         <v>1099771</v>
       </c>
-      <c r="I26">
-        <f>A5</f>
-        <v>20765</v>
-      </c>
-      <c r="J26">
-        <f>Table511[[#Totals],[A]]*I26+Table511[[#Totals],[B]]</f>
-        <v>-4.9910606512960527</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -7921,10 +1551,6 @@
       <c r="C27" s="2">
         <v>1099780</v>
       </c>
-      <c r="J27">
-        <f>Table511[[#Totals],[A]]*K9+Table511[[#Totals],[B]]</f>
-        <v>773.86022227821161</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -7935,10 +1561,6 @@
       </c>
       <c r="C28" s="2">
         <v>1099788</v>
-      </c>
-      <c r="J28">
-        <f>Table511[[#Totals],[A]]*K10+Table511[[#Totals],[B]]</f>
-        <v>5268.951871045836</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
